--- a/Monthly Report Creator/sample.xlsx
+++ b/Monthly Report Creator/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject\Monthly Report Creator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CA7B86-0D95-44E4-9C14-15AD04873992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33196F2D-709A-486C-8754-76788D3EB7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3516" yWindow="312" windowWidth="18528" windowHeight="11808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
     <t>Missing Hour</t>
   </si>
   <si>
-    <t>Overtime hour</t>
+    <t>Overtime Hour</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
